--- a/biology/Médecine/1749_en_santé_et_médecine/1749_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1749_en_santé_et_médecine/1749_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1749_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1749_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1749 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1749_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1749_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le médecin de l'impératrice Marie-Thérèse d'Autriche, le néerlandais Gerard van Swieten est nommé fellow of the Royal Society[1].
-En France, le doctorat est institué pour les chirurgiens, avec soutenance d'une thèse en latin[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le médecin de l'impératrice Marie-Thérèse d'Autriche, le néerlandais Gerard van Swieten est nommé fellow of the Royal Society.
+En France, le doctorat est institué pour les chirurgiens, avec soutenance d'une thèse en latin.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1749_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1749_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paraît, de Herman Boerhaave, en traduction française, le traité Des maladies des yeux À quoi l'on a joint son Introduction à la pratique clinique ; ses Leçons sur la pierre ; quelques descriptions de maladies, et quelques consultations….
-Jean-Baptiste Sénac, Traité de la structure du cœur, de son action et de ses maladies, Paris, Jacques Vincent, 1749 (lire en ligne). Ce traité en deux volumes est un ouvrage fondateur de la cardiologie[2].</t>
+Jean-Baptiste Sénac, Traité de la structure du cœur, de son action et de ses maladies, Paris, Jacques Vincent, 1749 (lire en ligne). Ce traité en deux volumes est un ouvrage fondateur de la cardiologie.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1749_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1749_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 mars : Edme-Pierre Chauvot de Beauchêne (mort en 1824), médecin français, pionnier de l'étude de l'hystérie.
 17 mai : Edward Jenner (mort en 1823), médecin anglais, considéré comme le premier immunologiste.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1749_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1749_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,6 +629,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
